--- a/Initialization/schemas/Firm_schema.xlsx
+++ b/Initialization/schemas/Firm_schema.xlsx
@@ -41,11 +41,14 @@
   <connection id="5" name="Firm4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="6" name="Firm5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\MiniACE\Initialization\schemas\Firm.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -256,6 +259,9 @@
   <si>
     <t>wage_offer</t>
   </si>
+  <si>
+    <t>name</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +365,164 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="52">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -378,6 +541,295 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="states">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="xagent" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="region_id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="gov_id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="day_of_month_to_act" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="last_day_of_month_to_act" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="bank_id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="active" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_assets" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="payment_account" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="current_assets" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="non_current_assets" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_liabilities" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="current_liabilities" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="non_current_liabilities" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="equity" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="loans" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="operating_cash_flow" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="external_financial_needs" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="vat_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="capital_tax_rate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_revenue" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="price_level" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_wage_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_loan_interest_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_loan_instalment_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="short_term_borrowing_interest_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="total_financial_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_interest_rate_on_short_term_borrowing" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="vat_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ebt" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="dividend_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="outstanding_shares" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="net_earnings" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="capital_tax_payment" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="remaining_days_of_bankruptcy" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="expected_demand" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="production_plan" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="investment_plan" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="productivity" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="capacity_utilization" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="capital_labor_ratio" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="physical_capital" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="inventories" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="monthly_sold_quantity" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="sold_quantities_vector" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="physical_capital_stock" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="physical_capital_price" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="price" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="price_last_month" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="production" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="physical_capital_depreciation_cost" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="unit_costs" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="mark_up" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="cb_trust" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="inflation_target" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="average_demand_level" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="average_wage_level" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="initialization" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="employees" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="labor_requirement" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="delta_labor_requirement" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="average_wage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="wage_offer" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="states_Map" RootElement="states" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:BL19" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:BL19"/>
+  <tableColumns count="64">
+    <tableColumn id="1" uniqueName="name" name="name">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="id" name="id">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="region_id" name="region_id">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/region_id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="gov_id" name="gov_id">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/gov_id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="day_of_month_to_act" name="day_of_month_to_act">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/day_of_month_to_act" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="last_day_of_month_to_act" name="last_day_of_month_to_act">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/last_day_of_month_to_act" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="bank_id" name="bank_id">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/bank_id" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="active" name="active">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/active" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="total_assets" name="total_assets" dataDxfId="51">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/total_assets" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="payment_account" name="payment_account" dataDxfId="50">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/payment_account" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="current_assets" name="current_assets" dataDxfId="49">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/current_assets" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="non_current_assets" name="non_current_assets" dataDxfId="48">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/non_current_assets" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="total_liabilities" name="total_liabilities" dataDxfId="47">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/total_liabilities" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="current_liabilities" name="current_liabilities" dataDxfId="46">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/current_liabilities" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="non_current_liabilities" name="non_current_liabilities" dataDxfId="45">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/non_current_liabilities" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="equity" name="equity" dataDxfId="44">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/equity" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="loans" name="loans">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/loans" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="operating_cash_flow" name="operating_cash_flow" dataDxfId="43">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/operating_cash_flow" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="19" uniqueName="external_financial_needs" name="external_financial_needs" dataDxfId="42">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/external_financial_needs" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="20" uniqueName="vat_rate" name="vat_rate" dataDxfId="41">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/vat_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="capital_tax_rate" name="capital_tax_rate" dataDxfId="40">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/capital_tax_rate" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="monthly_revenue" name="monthly_revenue" dataDxfId="39">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_revenue" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="23" uniqueName="price_level" name="price_level" dataDxfId="38">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/price_level" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="24" uniqueName="monthly_wage_payment" name="monthly_wage_payment" dataDxfId="37">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_wage_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="25" uniqueName="total_loan_interest_payment" name="total_loan_interest_payment" dataDxfId="36">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/total_loan_interest_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="26" uniqueName="total_loan_instalment_payment" name="total_loan_instalment_payment" dataDxfId="35">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/total_loan_instalment_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="27" uniqueName="short_term_borrowing_interest_payment" name="short_term_borrowing_interest_payment" dataDxfId="34">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/short_term_borrowing_interest_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="28" uniqueName="total_financial_payment" name="total_financial_payment" dataDxfId="33">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/total_financial_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="29" uniqueName="monthly_interest_rate_on_short_term_borrowing" name="monthly_interest_rate_on_short_term_borrowing" dataDxfId="32">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_interest_rate_on_short_term_borrowing" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="30" uniqueName="vat_payment" name="vat_payment" dataDxfId="31">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/vat_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="31" uniqueName="ebt" name="ebt" dataDxfId="30">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/ebt" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="32" uniqueName="dividend_payment" name="dividend_payment" dataDxfId="29">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/dividend_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="33" uniqueName="outstanding_shares" name="outstanding_shares" dataDxfId="28">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/outstanding_shares" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="34" uniqueName="net_earnings" name="net_earnings" dataDxfId="27">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/net_earnings" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="35" uniqueName="capital_tax_payment" name="capital_tax_payment" dataDxfId="26">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/capital_tax_payment" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="36" uniqueName="remaining_days_of_bankruptcy" name="remaining_days_of_bankruptcy" dataDxfId="25">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/remaining_days_of_bankruptcy" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="37" uniqueName="expected_demand" name="expected_demand" dataDxfId="24">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/expected_demand" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="38" uniqueName="production_plan" name="production_plan" dataDxfId="23">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/production_plan" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="39" uniqueName="investment_plan" name="investment_plan" dataDxfId="22">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/investment_plan" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="40" uniqueName="productivity" name="productivity" dataDxfId="21">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/productivity" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="41" uniqueName="capacity_utilization" name="capacity_utilization" dataDxfId="20">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/capacity_utilization" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="42" uniqueName="capital_labor_ratio" name="capital_labor_ratio" dataDxfId="19">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/capital_labor_ratio" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="43" uniqueName="physical_capital" name="physical_capital" dataDxfId="18">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/physical_capital" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="44" uniqueName="inventories" name="inventories" dataDxfId="17">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/inventories" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="45" uniqueName="monthly_sold_quantity" name="monthly_sold_quantity" dataDxfId="16">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/monthly_sold_quantity" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="46" uniqueName="sold_quantities_vector" name="sold_quantities_vector">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/sold_quantities_vector" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="47" uniqueName="physical_capital_stock" name="physical_capital_stock">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/physical_capital_stock" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="48" uniqueName="physical_capital_price" name="physical_capital_price" dataDxfId="15">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/physical_capital_price" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="49" uniqueName="price" name="price" dataDxfId="14">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/price" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="50" uniqueName="price_last_month" name="price_last_month" dataDxfId="13">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/price_last_month" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="51" uniqueName="production" name="production" dataDxfId="12">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/production" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="52" uniqueName="physical_capital_depreciation_cost" name="physical_capital_depreciation_cost" dataDxfId="11">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/physical_capital_depreciation_cost" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="53" uniqueName="unit_costs" name="unit_costs" dataDxfId="10">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/unit_costs" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="54" uniqueName="mark_up" name="mark_up" dataDxfId="9">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/mark_up" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="55" uniqueName="cb_trust" name="cb_trust" dataDxfId="8">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/cb_trust" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="56" uniqueName="inflation_target" name="inflation_target" dataDxfId="7">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/inflation_target" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="57" uniqueName="average_demand_level" name="average_demand_level" dataDxfId="6">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/average_demand_level" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="58" uniqueName="average_wage_level" name="average_wage_level" dataDxfId="5">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/average_wage_level" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="59" uniqueName="initialization" name="initialization" dataDxfId="4">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/initialization" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="60" uniqueName="employees" name="employees">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/employees" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="61" uniqueName="labor_requirement" name="labor_requirement" dataDxfId="3">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/labor_requirement" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="62" uniqueName="delta_labor_requirement" name="delta_labor_requirement" dataDxfId="2">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/delta_labor_requirement" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="63" uniqueName="average_wage" name="average_wage" dataDxfId="1">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/average_wage" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="64" uniqueName="wage_offer" name="wage_offer" dataDxfId="0">
+      <xmlColumnPr mapId="1" xpath="/states/xagent/wage_offer" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,7 +1098,7 @@
   <dimension ref="A1:BL20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="BL20" sqref="A3:BL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3" t="s">
         <v>23</v>
@@ -1450,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" t="s">
         <v>23</v>
@@ -1644,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5" t="s">
         <v>23</v>
@@ -1838,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="BG6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" t="s">
         <v>23</v>
@@ -2032,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" t="s">
         <v>23</v>
@@ -2226,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="BG8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH8" t="s">
         <v>23</v>
@@ -2420,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" t="s">
         <v>23</v>
@@ -2614,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" t="s">
         <v>23</v>
@@ -2808,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" t="s">
         <v>23</v>
@@ -3002,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" t="s">
         <v>23</v>
@@ -3196,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" t="s">
         <v>23</v>
@@ -3390,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" t="s">
         <v>23</v>
@@ -3584,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" t="s">
         <v>23</v>
@@ -3778,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" t="s">
         <v>23</v>
@@ -3972,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="BG17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH17" t="s">
         <v>23</v>
@@ -4166,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="BG18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" t="s">
         <v>23</v>
@@ -4360,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" t="s">
         <v>23</v>
@@ -4554,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="BG20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" t="s">
         <v>23</v>
@@ -4580,10 +5032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I2:BL19"/>
+  <dimension ref="A1:BL19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BE21" sqref="BE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,979 +5044,3696 @@
     <col min="10" max="64" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="3" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="7"/>
-      <c r="BL3" s="7"/>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>1</v>
+      </c>
+      <c r="X2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="12"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>1</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="12"/>
-      <c r="BI6" s="12"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>1</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="12"/>
-      <c r="BI7" s="12"/>
-      <c r="BJ7" s="12"/>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>1</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
-      <c r="BC8" s="7"/>
-      <c r="BD8" s="7"/>
-      <c r="BE8" s="7"/>
-      <c r="BF8" s="7"/>
-      <c r="BG8" s="12"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="12"/>
-      <c r="BK8" s="7"/>
-      <c r="BL8" s="7"/>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="12"/>
-      <c r="BI9" s="12"/>
-      <c r="BJ9" s="12"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="12"/>
-      <c r="BI10" s="12"/>
-      <c r="BJ10" s="12"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="12"/>
-      <c r="BI11" s="12"/>
-      <c r="BJ11" s="12"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>1</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="12"/>
-      <c r="BI12" s="12"/>
-      <c r="BJ12" s="12"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>1</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="12"/>
-      <c r="BI13" s="12"/>
-      <c r="BJ13" s="12"/>
-      <c r="BK13" s="7"/>
-      <c r="BL13" s="7"/>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <v>1</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="7"/>
-      <c r="AY14" s="7"/>
-      <c r="AZ14" s="7"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
-      <c r="BC14" s="7"/>
-      <c r="BD14" s="7"/>
-      <c r="BE14" s="7"/>
-      <c r="BF14" s="7"/>
-      <c r="BG14" s="12"/>
-      <c r="BI14" s="12"/>
-      <c r="BJ14" s="12"/>
-      <c r="BK14" s="7"/>
-      <c r="BL14" s="7"/>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>1</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="7"/>
-      <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
-      <c r="AX15" s="7"/>
-      <c r="AY15" s="7"/>
-      <c r="AZ15" s="7"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="12"/>
-      <c r="BI15" s="12"/>
-      <c r="BJ15" s="12"/>
-      <c r="BK15" s="7"/>
-      <c r="BL15" s="7"/>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>1</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AV16" s="7"/>
-      <c r="AW16" s="7"/>
-      <c r="AX16" s="7"/>
-      <c r="AY16" s="7"/>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="7"/>
-      <c r="BC16" s="7"/>
-      <c r="BD16" s="7"/>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BG16" s="12"/>
-      <c r="BI16" s="12"/>
-      <c r="BJ16" s="12"/>
-      <c r="BK16" s="7"/>
-      <c r="BL16" s="7"/>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
-      <c r="AV17" s="7"/>
-      <c r="AW17" s="7"/>
-      <c r="AX17" s="7"/>
-      <c r="AY17" s="7"/>
-      <c r="AZ17" s="7"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="7"/>
-      <c r="BC17" s="7"/>
-      <c r="BD17" s="7"/>
-      <c r="BE17" s="7"/>
-      <c r="BF17" s="7"/>
-      <c r="BG17" s="12"/>
-      <c r="BI17" s="12"/>
-      <c r="BJ17" s="12"/>
-      <c r="BK17" s="7"/>
-      <c r="BL17" s="7"/>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>1</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI16" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="7"/>
-      <c r="AV18" s="7"/>
-      <c r="AW18" s="7"/>
-      <c r="AX18" s="7"/>
-      <c r="AY18" s="7"/>
-      <c r="AZ18" s="7"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="7"/>
-      <c r="BC18" s="7"/>
-      <c r="BD18" s="7"/>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="7"/>
-      <c r="BG18" s="12"/>
-      <c r="BI18" s="12"/>
-      <c r="BJ18" s="12"/>
-      <c r="BK18" s="7"/>
-      <c r="BL18" s="7"/>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>1</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL17" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="9:64" x14ac:dyDescent="0.25">
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="7"/>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
-      <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7"/>
-      <c r="BG19" s="12"/>
-      <c r="BI19" s="12"/>
-      <c r="BJ19" s="12"/>
-      <c r="BK19" s="7"/>
-      <c r="BL19" s="7"/>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <v>1</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>1</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>6</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="BC19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="12">
+        <v>1</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI19" s="12">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="7">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>